--- a/src/data/dataFormation2.xlsx
+++ b/src/data/dataFormation2.xlsx
@@ -1321,6 +1321,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E65"/>
   </ignoredErrors>
@@ -1329,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1359,7 +1360,7 @@
         <v>Fabricant</v>
       </c>
       <c r="D2" t="str">
-        <v>1;7;8;9;10;11;13;14;15;16;12;17;18;19;20</v>
+        <v>13;10;15;8;12;18;20;16;16;16;6</v>
       </c>
     </row>
     <row r="3">
@@ -1373,12 +1374,11 @@
         <v>Fabricant</v>
       </c>
       <c r="D3" t="str">
-        <v>1;7;8;9;10;11;12;21;22;13;23;24</v>
+        <v>1;7;8;9;10;11;12;21;22;13;23;24;6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -1390,7 +1390,6 @@
     </row>
     <row r="5">
       <c r="A5">
-        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5">
@@ -1405,7 +1404,6 @@
     </row>
     <row r="6">
       <c r="A6">
-        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6">
@@ -1420,7 +1418,6 @@
     </row>
     <row r="7">
       <c r="A7">
-        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7">
@@ -1435,7 +1432,6 @@
     </row>
     <row r="8">
       <c r="A8">
-        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8">
@@ -1450,7 +1446,6 @@
     </row>
     <row r="9">
       <c r="A9">
-        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9">
@@ -1465,7 +1460,6 @@
     </row>
     <row r="10">
       <c r="A10">
-        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10">
@@ -1480,7 +1474,6 @@
     </row>
     <row r="11">
       <c r="A11">
-        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11">
@@ -1495,7 +1488,6 @@
     </row>
     <row r="12">
       <c r="A12">
-        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12">
@@ -1510,7 +1502,6 @@
     </row>
     <row r="13">
       <c r="A13">
-        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13">
@@ -1525,7 +1516,6 @@
     </row>
     <row r="14">
       <c r="A14">
-        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14">
@@ -1540,7 +1530,6 @@
     </row>
     <row r="15">
       <c r="A15">
-        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15">
@@ -1555,7 +1544,6 @@
     </row>
     <row r="16">
       <c r="A16">
-        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16">
@@ -1570,7 +1558,6 @@
     </row>
     <row r="17">
       <c r="A17">
-        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17">
@@ -1585,7 +1572,6 @@
     </row>
     <row r="18">
       <c r="A18">
-        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18">
@@ -1597,7 +1583,6 @@
     </row>
     <row r="19">
       <c r="A19">
-        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19">
@@ -1606,7 +1591,6 @@
     </row>
     <row r="20">
       <c r="A20">
-        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20">
@@ -1615,7 +1599,6 @@
     </row>
     <row r="21">
       <c r="A21">
-        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21">
@@ -1624,7 +1607,6 @@
     </row>
     <row r="22">
       <c r="A22">
-        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22">
@@ -1633,7 +1615,6 @@
     </row>
     <row r="23">
       <c r="A23">
-        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23">
@@ -1642,7 +1623,6 @@
     </row>
     <row r="24">
       <c r="A24">
-        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24">
@@ -1651,7 +1631,6 @@
     </row>
     <row r="25">
       <c r="A25">
-        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25">
@@ -1660,7 +1639,6 @@
     </row>
     <row r="26">
       <c r="A26">
-        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26">
@@ -1669,7 +1647,6 @@
     </row>
     <row r="27">
       <c r="A27">
-        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27">
@@ -1678,7 +1655,6 @@
     </row>
     <row r="28">
       <c r="A28">
-        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28">
@@ -1687,7 +1663,6 @@
     </row>
     <row r="29">
       <c r="A29">
-        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29">
@@ -1696,7 +1671,6 @@
     </row>
     <row r="30">
       <c r="A30">
-        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30">
@@ -1705,7 +1679,6 @@
     </row>
     <row r="31">
       <c r="A31">
-        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31">
@@ -1714,7 +1687,6 @@
     </row>
     <row r="32">
       <c r="A32">
-        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32">
@@ -1723,7 +1695,6 @@
     </row>
     <row r="33">
       <c r="A33">
-        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33">
@@ -1732,7 +1703,6 @@
     </row>
     <row r="34">
       <c r="A34">
-        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34">
@@ -1741,7 +1711,6 @@
     </row>
     <row r="35">
       <c r="A35">
-        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35">
@@ -1750,7 +1719,6 @@
     </row>
     <row r="36">
       <c r="A36">
-        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36">
@@ -1759,7 +1727,6 @@
     </row>
     <row r="37">
       <c r="A37">
-        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37">
@@ -1768,7 +1735,6 @@
     </row>
     <row r="38">
       <c r="A38">
-        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38">
@@ -1777,7 +1743,6 @@
     </row>
     <row r="39">
       <c r="A39">
-        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39">
@@ -1786,7 +1751,6 @@
     </row>
     <row r="40">
       <c r="A40">
-        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40">
@@ -1795,7 +1759,6 @@
     </row>
     <row r="41">
       <c r="A41">
-        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41">
@@ -1804,7 +1767,6 @@
     </row>
     <row r="42">
       <c r="A42">
-        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42">
@@ -1813,7 +1775,6 @@
     </row>
     <row r="43">
       <c r="A43">
-        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43">
@@ -1822,7 +1783,6 @@
     </row>
     <row r="44">
       <c r="A44">
-        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44">
@@ -1831,7 +1791,6 @@
     </row>
     <row r="45">
       <c r="A45">
-        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45">
@@ -1840,7 +1799,6 @@
     </row>
     <row r="46">
       <c r="A46">
-        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46">
@@ -1849,7 +1807,6 @@
     </row>
     <row r="47">
       <c r="A47">
-        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47">
@@ -1858,7 +1815,6 @@
     </row>
     <row r="48">
       <c r="A48">
-        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48">
@@ -1867,7 +1823,6 @@
     </row>
     <row r="49">
       <c r="A49">
-        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49">
@@ -1876,7 +1831,6 @@
     </row>
     <row r="50">
       <c r="A50">
-        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50">
@@ -1885,7 +1839,6 @@
     </row>
     <row r="51">
       <c r="A51">
-        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51">
@@ -1894,7 +1847,6 @@
     </row>
     <row r="52">
       <c r="A52">
-        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52">
@@ -1903,7 +1855,6 @@
     </row>
     <row r="53">
       <c r="A53">
-        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53">
@@ -1912,7 +1863,6 @@
     </row>
     <row r="54">
       <c r="A54">
-        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54">
@@ -1921,7 +1871,6 @@
     </row>
     <row r="55">
       <c r="A55">
-        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55">
@@ -1930,7 +1879,6 @@
     </row>
     <row r="56">
       <c r="A56">
-        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56">
@@ -1939,17 +1887,26 @@
     </row>
     <row r="57">
       <c r="A57">
-        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57">
         <v>86</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Fabricant</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2689,6 +2646,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
@@ -2697,7 +2655,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2726,17 +2684,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>apte</v>
+        <v>non-ev</v>
       </c>
       <c r="F2" t="str">
         <v>2023-10-10</v>
@@ -2756,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>arevoir</v>
+        <v>non-ev</v>
       </c>
       <c r="F3" t="str">
         <v>2023-04-06</v>
@@ -2782,17 +2740,37 @@
         <v>2023-01-27</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>apte</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2023-10-10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4010,28 +3988,10 @@
         <v>Bras de levage</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127">
-        <f>A126+1</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <f>A127+1</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <f>A128+1</f>
-        <v>128</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C126"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/data/dataFormation2.xlsx
+++ b/src/data/dataFormation2.xlsx
@@ -1330,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1360,7 +1360,7 @@
         <v>Fabricant</v>
       </c>
       <c r="D2" t="str">
-        <v>13;10;15;8;12;18;20;16;16;16;6</v>
+        <v>1;7;8;9;10;11;13;14;15;16;12;17;18;19;20</v>
       </c>
     </row>
     <row r="3">
@@ -1374,7 +1374,7 @@
         <v>Fabricant</v>
       </c>
       <c r="D3" t="str">
-        <v>1;7;8;9;10;11;12;21;22;13;23;24;6</v>
+        <v>1;7;8;9;10;11;12;21;22;13;23;24</v>
       </c>
     </row>
     <row r="4">
@@ -1580,6 +1580,9 @@
       <c r="C18" t="str">
         <v>Conditionneur</v>
       </c>
+      <c r="D18" t="str">
+        <v>3;4;5;6;52;53;44;54;12;17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1588,6 +1591,12 @@
       <c r="B19">
         <v>19</v>
       </c>
+      <c r="C19" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1;2;3;4;5;6;55;56;57;58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1596,6 +1605,12 @@
       <c r="B20">
         <v>20</v>
       </c>
+      <c r="C20" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1;2;3;4;5;6;59;60</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1604,6 +1619,12 @@
       <c r="B21">
         <v>22</v>
       </c>
+      <c r="C21" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1;2;3;4;5;6;61;62;63</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1612,13 +1633,25 @@
       <c r="B22">
         <v>23</v>
       </c>
+      <c r="C22" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1;2;3;4;5;6;64;63;65</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D23" t="str">
+        <v>3;4;5;6;66;67;12;11;68</v>
       </c>
     </row>
     <row r="24">
@@ -1626,7 +1659,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1;2;3;4;5;6;54;69;63;16;70</v>
       </c>
     </row>
     <row r="25">
@@ -1634,7 +1673,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1;2;3;4;5;6;61;62;63</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1687,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1;2;3;4;5;6;71;20;12</v>
       </c>
     </row>
     <row r="27">
@@ -1650,7 +1701,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1;2;3;4;5;6;45;55;72;120;</v>
       </c>
     </row>
     <row r="28">
@@ -1658,7 +1715,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D28" t="str">
+        <v>3;4;5;6;73</v>
       </c>
     </row>
     <row r="29">
@@ -1666,7 +1729,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1;2;3;4;5;6;74;44</v>
       </c>
     </row>
     <row r="30">
@@ -1674,7 +1743,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D30" t="str">
+        <v>3;4;5;6;75;76</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1757,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1;7;8;9;10;11;12;61;77;78;79;80</v>
       </c>
     </row>
     <row r="32">
@@ -1690,7 +1771,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1;2;3;4;5;6;81;82;12</v>
       </c>
     </row>
     <row r="33">
@@ -1698,7 +1785,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1;2;3;4;5;6;66;54;12</v>
       </c>
     </row>
     <row r="34">
@@ -1706,7 +1799,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1;2;3;4;5;6;66;54;12</v>
       </c>
     </row>
     <row r="35">
@@ -1714,7 +1813,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1;2;3;4;5;6;63;65</v>
       </c>
     </row>
     <row r="36">
@@ -1722,7 +1827,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D36" t="str">
+        <v>3;4;5;6;66;83</v>
       </c>
     </row>
     <row r="37">
@@ -1730,7 +1841,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Conducteur</v>
       </c>
     </row>
     <row r="38">
@@ -1738,7 +1852,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Conducteur</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1863,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1;7;8;9;10;11;12;84</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1877,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1;2;3;4;5;6;88;54;85;86;87</v>
       </c>
     </row>
     <row r="41">
@@ -1762,7 +1891,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1;7;8;9;10;11;12;13;27;67</v>
       </c>
     </row>
     <row r="42">
@@ -1770,7 +1905,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1;2;3;4;5;6;44;75;89;90;12;91;87</v>
       </c>
     </row>
     <row r="43">
@@ -1778,7 +1919,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D43" t="str">
+        <v>7;8;9;10;11;12;13;89;27;92;12;67;1;25;22;17;23;84</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1933,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1;2;3;4;5;6;128;93;44;67;129</v>
       </c>
     </row>
     <row r="45">
@@ -1794,7 +1947,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D45" t="str">
+        <v>1;2;3;4;5;6;81;63;54;94;67</v>
       </c>
     </row>
     <row r="46">
@@ -1802,7 +1961,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1;2;3;4;5;6;77;63;54;94;67</v>
       </c>
     </row>
     <row r="47">
@@ -1810,7 +1975,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D47" t="str">
+        <v>1;2;3;4;5;6;13;95;96;97;98;67;70</v>
       </c>
     </row>
     <row r="48">
@@ -1818,7 +1989,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D48" t="str">
+        <v>3;4;5;6;83;99</v>
       </c>
     </row>
     <row r="49">
@@ -1826,7 +2003,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D49" t="str">
+        <v>1;2;3;4;5;6;88;54;85;86;87</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +2017,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1;7;8;9;10;11;12;13;27;67</v>
       </c>
     </row>
     <row r="51">
@@ -1842,7 +2031,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1;2;3;4;5;6;126;100;101;102</v>
       </c>
     </row>
     <row r="52">
@@ -1850,7 +2045,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1;2;3;4;5;6;44;75;89;90;12;91;87</v>
       </c>
     </row>
     <row r="53">
@@ -1858,7 +2059,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D53" t="str">
+        <v>7;8;9;10;11;12;13;89;27;92;12;67;1;25;22;17;23;84</v>
       </c>
     </row>
     <row r="54">
@@ -1866,7 +2073,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Fabricant</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1;7;8;9;10;11;12;13;103;104;105;106;107;67</v>
       </c>
     </row>
     <row r="55">
@@ -1874,7 +2087,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D55" t="str">
+        <v>1;2;3;4;5;6;63;108;109;110;111;112;113;114;115</v>
       </c>
     </row>
     <row r="56">
@@ -1882,7 +2101,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1;2;3;4;5;6;116;63;54;44;48;12</v>
       </c>
     </row>
     <row r="57">
@@ -1890,23 +2115,145 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1;2;3;4;5;6;63;108;109;110;111;112;113;114;115</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C58" t="str">
         <v>Fabricant</v>
       </c>
+      <c r="D58" t="str">
+        <v>1;7;8;9;10;11;13;14;15;16;12;17;18;19;20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>80</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1;2;3;4;5;6;117;45;124</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>81</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D60" t="str">
+        <v>1;2;3;4;5;6;119;118;54;44;120;17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>81</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D61" t="str">
+        <v>3;4;5;6;12;83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>82</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1;2;3;4;5;6;121;</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>83</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D63" t="str">
+        <v>1;2;3;4;5;6;122;63;54;65;</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>84</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D64" t="str">
+        <v>1;2;3;4;5;6;126;54;124;12;123;16;125;127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>85</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D65" t="str">
+        <v>1;2;3;4;5;6;126;54;124;12;123;16;125;127</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>86</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1;2;3;4;5;6;54;67;122;12;87</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D66"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1945,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Melangeur liquide</v>
+        <v>Melangeur LIQUIDE</v>
       </c>
       <c r="C3" t="str">
-        <v>liquide</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="4">
@@ -1959,7 +2306,7 @@
         <v>OFF</v>
       </c>
       <c r="C4" t="str">
-        <v>liquide</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="5">
@@ -1967,10 +2314,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Disperseur poudre</v>
+        <v>Disperseur POUDRE</v>
       </c>
       <c r="C5" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="6">
@@ -1981,7 +2328,7 @@
         <v>Disperseur teinte Fill</v>
       </c>
       <c r="C6" t="str">
-        <v>liquide</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="7">
@@ -1989,10 +2336,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>Disperseur Liquide</v>
+        <v>Disperseur LIQUIDE</v>
       </c>
       <c r="C7" t="str">
-        <v>liquide</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="8">
@@ -2003,7 +2350,7 @@
         <v>Conditionneuse bidon SERAC</v>
       </c>
       <c r="C8" t="str">
-        <v>liquide</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2446,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="str">
-        <v>Découpe Combiflex</v>
+        <v>Découpe COMBIFLEX</v>
       </c>
       <c r="C17" t="str">
-        <v>Combiflex</v>
+        <v>COMBIFLEX</v>
       </c>
     </row>
     <row r="18">
@@ -2165,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="str">
-        <v>conditionneuse manuelle liquide</v>
+        <v>conditionneuse manuelle LIQUIDE</v>
       </c>
       <c r="C23" t="str">
         <v>FIBRE</v>
@@ -2187,10 +2534,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>Doypack Poudre</v>
+        <v>Doypack POUDRE</v>
       </c>
       <c r="C25" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="26">
@@ -2201,7 +2548,7 @@
         <v>Mélangeur Spoutnik</v>
       </c>
       <c r="C26" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="27">
@@ -2245,7 +2592,7 @@
         <v xml:space="preserve">Ensacheuse petit conditionnement  </v>
       </c>
       <c r="C30" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="31">
@@ -2272,7 +2619,7 @@
         <v>Disperseur colorant</v>
       </c>
       <c r="C33" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="34">
@@ -2280,10 +2627,10 @@
         <v>39</v>
       </c>
       <c r="B34" t="str">
-        <v>Malaxeur Legrand et EMB Poudre</v>
+        <v>Malaxeur Legrand et EMB POUDRE</v>
       </c>
       <c r="C34" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="35">
@@ -2294,7 +2641,7 @@
         <v>Malaxeur Katymper</v>
       </c>
       <c r="C35" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="36">
@@ -2305,7 +2652,7 @@
         <v>Palettiseur DAMVILLE</v>
       </c>
       <c r="C36" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="37">
@@ -2316,7 +2663,7 @@
         <v>Conditionneuse Kit Mortier &lt;5KG</v>
       </c>
       <c r="C37" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="38">
@@ -2327,7 +2674,7 @@
         <v>Conditionneuse Kit Mortier &gt;5KG</v>
       </c>
       <c r="C38" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="39">
@@ -2338,7 +2685,7 @@
         <v>TAMISEUSE BIG BAG</v>
       </c>
       <c r="C39" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="40">
@@ -2349,7 +2696,7 @@
         <v>SUR-EMBALLAGE</v>
       </c>
       <c r="C40" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="41">
@@ -2357,10 +2704,10 @@
         <v>47</v>
       </c>
       <c r="B41" t="str">
-        <v>Malaxeur Legrand et EMB Poudre</v>
+        <v>Malaxeur Legrand et EMB POUDRE</v>
       </c>
       <c r="C41" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="42">
@@ -2382,7 +2729,7 @@
         <v>Malaxeur Katymper</v>
       </c>
       <c r="C43" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="44">
@@ -2393,7 +2740,7 @@
         <v>MALAXEUR TURMIX QATAR</v>
       </c>
       <c r="C44" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="45">
@@ -2448,7 +2795,7 @@
         <v>Etiqueteuse seaux</v>
       </c>
       <c r="C49" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="50">
@@ -2456,10 +2803,10 @@
         <v>81</v>
       </c>
       <c r="B50" t="str">
-        <v>Conditionneuse liquide Double tete</v>
+        <v>Conditionneuse LIQUIDE Double tete</v>
       </c>
       <c r="C50" t="str">
-        <v>liquide</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="51">
@@ -2514,7 +2861,7 @@
         <v xml:space="preserve">Conditionneuse Seaux Mortier </v>
       </c>
       <c r="C55" t="str">
-        <v>poudre</v>
+        <v>POUDRE</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2979,7 @@
       <c r="D4" t="str">
         <v>2023-01-27</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="str">
         <v>1</v>
       </c>
       <c r="F4" t="str">
@@ -2644,9 +2991,11 @@
       <c r="H4" t="str">
         <v>Shampoing</v>
       </c>
+      <c r="I4" t="str">
+        <v>undefined</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
@@ -2655,7 +3004,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2671,12 +3020,15 @@
         <v>ID_Competence</v>
       </c>
       <c r="D1" t="str">
+        <v>ID_Poste</v>
+      </c>
+      <c r="E1" t="str">
         <v>Formation</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Niveau</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>DateControle</v>
       </c>
     </row>
@@ -2684,60 +3036,69 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="str">
-        <v>non-ev</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>2023-10-10</v>
+        <v>apte</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2023-12-01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2023-04-06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
         <v>apte</v>
       </c>
-      <c r="F4" t="str">
-        <v>2023-01-27</v>
+      <c r="G4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -2748,29 +3109,905 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="B7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
         <v>apte</v>
       </c>
-      <c r="F5" t="str">
-        <v>2023-10-10</v>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="str">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="str">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="str">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="str">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="str">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="str">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="str">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>42</v>
+      </c>
+      <c r="B44" t="str">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="str">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <v>apte</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G44"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3105,6 +4342,9 @@
       <c r="B28" t="str">
         <v>Agitation</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -3114,6 +4354,9 @@
       <c r="B29" t="str">
         <v>Raccordement IBC conditionneuse (mise en place de flexible)</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -3123,6 +4366,9 @@
       <c r="B30" t="str">
         <v>Mise en place des raccords adaptés</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -3132,6 +4378,9 @@
       <c r="B31" t="str">
         <v>Mise en place du filtre</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -3141,6 +4390,9 @@
       <c r="B32" t="str">
         <v>Utilisation étiqueteuse</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -3150,6 +4402,9 @@
       <c r="B33" t="str">
         <v>Approvisionnement machine via fût</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -3159,6 +4414,9 @@
       <c r="B34" t="str">
         <v>Agitation compo A</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -3168,6 +4426,9 @@
       <c r="B35" t="str">
         <v>Allumer lampe</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -3177,6 +4438,9 @@
       <c r="B36" t="str">
         <v>Monter descendre cloche</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -3186,6 +4450,9 @@
       <c r="B37" t="str">
         <v>Activation turbine et racleur</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -3195,6 +4462,9 @@
       <c r="B38" t="str">
         <v>Réglages pression</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -3204,6 +4474,9 @@
       <c r="B39" t="str">
         <v>Descente plateau</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -3213,6 +4486,9 @@
       <c r="B40" t="str">
         <v>Réglages presse</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -3222,6 +4498,9 @@
       <c r="B41" t="str">
         <v>Savoir que tout est dans la pièce thermorégulée</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -3231,6 +4510,9 @@
       <c r="B42" t="str">
         <v>Mise en place cartouche d'azote et bonbonne azote</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -3240,6 +4522,9 @@
       <c r="B43" t="str">
         <v>Gaz HFO</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -3249,6 +4534,9 @@
       <c r="B44" t="str">
         <v>Mesure du certissage cartouche</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -3258,6 +4546,9 @@
       <c r="B45" t="str">
         <v>Impression jet d'encre</v>
       </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -3267,6 +4558,9 @@
       <c r="B46" t="str">
         <v>Utilisation pc pour programmation étiqueteuse</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -3276,6 +4570,9 @@
       <c r="B47" t="str">
         <v>Cipsage bouchon</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -3285,6 +4582,9 @@
       <c r="B48" t="str">
         <v>Utilisation détecteur gaz</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -3294,6 +4594,9 @@
       <c r="B49" t="str">
         <v>Pistolet à colle</v>
       </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -3303,6 +4606,9 @@
       <c r="B50" t="str">
         <v>Graissage</v>
       </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -3312,6 +4618,9 @@
       <c r="B51" t="str">
         <v>Formation CPU ALU + assemblage</v>
       </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3321,6 +4630,9 @@
       <c r="B52" t="str">
         <v>Utilisation presse à fût</v>
       </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3330,6 +4642,9 @@
       <c r="B53" t="str">
         <v>Raccordement presse machine</v>
       </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3339,6 +4654,9 @@
       <c r="B54" t="str">
         <v>Approvisionnement cartouche/piston</v>
       </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3348,6 +4666,9 @@
       <c r="B55" t="str">
         <v>Réglages doses</v>
       </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3357,6 +4678,9 @@
       <c r="B56" t="str">
         <v>Mise en place rouleau</v>
       </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3366,6 +4690,9 @@
       <c r="B57" t="str">
         <v>Réglages chamgement lame</v>
       </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3375,6 +4702,9 @@
       <c r="B58" t="str">
         <v>Utilisation enrouleur</v>
       </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3384,6 +4714,9 @@
       <c r="B59" t="str">
         <v>Poinçonnage</v>
       </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3393,6 +4726,9 @@
       <c r="B60" t="str">
         <v>Approvisionnement trame</v>
       </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3402,6 +4738,9 @@
       <c r="B61" t="str">
         <v>Utilisation logiciel VECTORPILOT</v>
       </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3411,6 +4750,9 @@
       <c r="B62" t="str">
         <v>Nacelle (harnais)</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3420,6 +4762,9 @@
       <c r="B63" t="str">
         <v>Approvisionnement trémie via sac de fibre</v>
       </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3429,6 +4774,9 @@
       <c r="B64" t="str">
         <v>Approvisionnement bobine</v>
       </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3438,6 +4786,9 @@
       <c r="B65" t="str">
         <v>Démontage/remontage des cales selon couleur</v>
       </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3447,6 +4798,9 @@
       <c r="B66" t="str">
         <v>Mise en place tampon encreur</v>
       </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3456,6 +4810,9 @@
       <c r="B67" t="str">
         <v>Approvisionnement big bag via palan</v>
       </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3465,6 +4822,9 @@
       <c r="B68" t="str">
         <v>Dépoussiéreur</v>
       </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3474,6 +4834,9 @@
       <c r="B69" t="str">
         <v>Déchets triés par couleur</v>
       </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3483,6 +4846,9 @@
       <c r="B70" t="str">
         <v>Approvisionnement puck</v>
       </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3492,6 +4858,9 @@
       <c r="B71" t="str">
         <v>Utilisation caméra</v>
       </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -3501,6 +4870,9 @@
       <c r="B72" t="str">
         <v>Conditionneuse manuelle liquide</v>
       </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -3510,6 +4882,9 @@
       <c r="B73" t="str">
         <v>Allumer scelleuse infrarouge</v>
       </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -3519,6 +4894,9 @@
       <c r="B74" t="str">
         <v>Mise en place pots</v>
       </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -3528,6 +4906,9 @@
       <c r="B75" t="str">
         <v>Utilisation thermoscelleuse sacs</v>
       </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -3537,6 +4918,9 @@
       <c r="B76" t="str">
         <v>Approvisionnement sacs matière première</v>
       </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -3546,6 +4930,9 @@
       <c r="B77" t="str">
         <v>Utilisation pistolet à étiquettes</v>
       </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -3555,6 +4942,9 @@
       <c r="B78" t="str">
         <v>Utilisation croix de levage</v>
       </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -3564,6 +4954,9 @@
       <c r="B79" t="str">
         <v>Utilisation étai</v>
       </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -3573,6 +4966,9 @@
       <c r="B80" t="str">
         <v>Mise en sécurité poste</v>
       </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -3582,6 +4978,9 @@
       <c r="B81" t="str">
         <v>Utilisation carcher haute pression</v>
       </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -3591,6 +4990,9 @@
       <c r="B82" t="str">
         <v>Approvisionnement big bag via palonnier</v>
       </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -3600,6 +5002,9 @@
       <c r="B83" t="str">
         <v>Utilisation couseuse sacs</v>
       </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -3609,6 +5014,9 @@
       <c r="B84" t="str">
         <v>Utilisation soudeuse</v>
       </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -3618,6 +5026,9 @@
       <c r="B85" t="str">
         <v>Utilisation couteau</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -3627,6 +5038,9 @@
       <c r="B86" t="str">
         <v>Vérification poids</v>
       </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3636,6 +5050,9 @@
       <c r="B87" t="str">
         <v>Utiliser imprimante sacs</v>
       </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -3645,6 +5062,9 @@
       <c r="B88" t="str">
         <v>Utilisation filmeuse</v>
       </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -3654,6 +5074,9 @@
       <c r="B89" t="str">
         <v>Activation vidange malaxeur</v>
       </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -3663,6 +5086,9 @@
       <c r="B90" t="str">
         <v>Vérification avec fabricant que la prod est terminée avant d'ouvrir trappe</v>
       </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -3672,6 +5098,9 @@
       <c r="B91" t="str">
         <v>Evacuation des 10 premiers sacs</v>
       </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -3681,6 +5110,9 @@
       <c r="B92" t="str">
         <v>Vérification sacs avec tampon color</v>
       </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3690,6 +5122,9 @@
       <c r="B93" t="str">
         <v>LOTO (sécurité avec cadenas)</v>
       </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -3699,6 +5134,9 @@
       <c r="B94" t="str">
         <v>Utilisation palettiseur</v>
       </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -3708,6 +5146,9 @@
       <c r="B95" t="str">
         <v>Réglage température de scellage</v>
       </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -3717,6 +5158,9 @@
       <c r="B96" t="str">
         <v>Approvisionnement big bag via chariot</v>
       </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -3726,6 +5170,9 @@
       <c r="B97" t="str">
         <v>Vérification état tamis</v>
       </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -3735,6 +5182,9 @@
       <c r="B98" t="str">
         <v>Tamiseur</v>
       </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -3744,6 +5194,9 @@
       <c r="B99" t="str">
         <v>Vis sans fin</v>
       </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -3753,6 +5206,9 @@
       <c r="B100" t="str">
         <v>Attention propreté (combinaison blanche, protéger sol)</v>
       </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -3762,6 +5218,9 @@
       <c r="B101" t="str">
         <v>Manipulation isocyanates</v>
       </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -3771,6 +5230,9 @@
       <c r="B102" t="str">
         <v>Manipulation azote</v>
       </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -3780,6 +5242,9 @@
       <c r="B103" t="str">
         <v>Nettoyage avec solvant cleaner</v>
       </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -3789,6 +5254,9 @@
       <c r="B104" t="str">
         <v>Approvisionnement cuve via benne</v>
       </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -3798,6 +5266,9 @@
       <c r="B105" t="str">
         <v>Utilisation minuteur</v>
       </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -3807,6 +5278,9 @@
       <c r="B106" t="str">
         <v>Agitation pales</v>
       </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -3816,6 +5290,9 @@
       <c r="B107" t="str">
         <v>Agitation turmix</v>
       </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -3825,6 +5302,9 @@
       <c r="B108" t="str">
         <v>Echantillonnage</v>
       </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -3834,6 +5314,9 @@
       <c r="B109" t="str">
         <v>Mise en place brumisateurs</v>
       </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -3843,6 +5326,9 @@
       <c r="B110" t="str">
         <v>Mise en place cocotte (eau osmosée)</v>
       </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -3852,6 +5338,9 @@
       <c r="B111" t="str">
         <v>Utilisation sécateur</v>
       </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -3861,6 +5350,9 @@
       <c r="B112" t="str">
         <v>Huilage lames</v>
       </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -3870,6 +5362,9 @@
       <c r="B113" t="str">
         <v>Réglages vitesse</v>
       </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -3879,6 +5374,9 @@
       <c r="B114" t="str">
         <v>Controle produits fabriqués</v>
       </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -3888,6 +5386,9 @@
       <c r="B115" t="str">
         <v>Utilisation cribleuse</v>
       </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -3897,6 +5398,9 @@
       <c r="B116" t="str">
         <v>Recyclage fibres déchets</v>
       </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -3906,6 +5410,9 @@
       <c r="B117" t="str">
         <v>Approvisionnement sacs dans trémie</v>
       </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -3915,6 +5422,9 @@
       <c r="B118" t="str">
         <v>Mise en place étiquettes</v>
       </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -3924,6 +5434,9 @@
       <c r="B119" t="str">
         <v>Utilisation air comprimé</v>
       </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -3933,6 +5446,9 @@
       <c r="B120" t="str">
         <v>Raccordement IBC têtes de dosage</v>
       </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -3942,6 +5458,9 @@
       <c r="B121" t="str">
         <v>Utilisation skotcheuse automatique</v>
       </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -3951,6 +5470,9 @@
       <c r="B122" t="str">
         <v>Lancer rouleau découpe</v>
       </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -3960,6 +5482,9 @@
       <c r="B123" t="str">
         <v>Ouverture big bag</v>
       </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -3969,6 +5494,9 @@
       <c r="B124" t="str">
         <v>Utilisation pompes</v>
       </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -3978,6 +5506,9 @@
       <c r="B125" t="str">
         <v>Certisseuse sceaux</v>
       </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -3987,11 +5518,38 @@
       <c r="B126" t="str">
         <v>Bras de levage</v>
       </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <f>A126+1</f>
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <v>raccordement ibc à machine,</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <f>A127+1</f>
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Palettisation selon fiche prod</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C128"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/data/dataFormation2.xlsx
+++ b/src/data/dataFormation2.xlsx
@@ -2251,7 +2251,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:D66"/>
   </ignoredErrors>
@@ -3004,7 +3003,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3975,32 +3974,32 @@
         <v/>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
+    <row r="43">
+      <c r="A43" t="str">
         <v>42</v>
       </c>
-      <c r="B44" t="str">
-        <v>1</v>
-      </c>
-      <c r="C44">
+      <c r="B43" t="str">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>24</v>
       </c>
-      <c r="D44">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E44" t="str">
-        <v>1</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E43" t="str">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
         <v>apte</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G43" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G43"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/data/dataFormation2.xlsx
+++ b/src/data/dataFormation2.xlsx
@@ -1321,7 +1321,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E65"/>
   </ignoredErrors>
@@ -2251,6 +2250,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:D66"/>
   </ignoredErrors>
@@ -2259,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2274,9 +2274,12 @@
       <c r="C1" t="str">
         <v>Categorie</v>
       </c>
+      <c r="D1" t="str">
+        <v>InfoPoste</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
       <c r="B2" t="str">
@@ -2284,6 +2287,9 @@
       </c>
       <c r="C2" t="str">
         <v>SIKAFILL</v>
+      </c>
+      <c r="D2" t="str">
+        <v>info lambda</v>
       </c>
     </row>
     <row r="3">
@@ -2866,14 +2872,14 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D55"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2933,7 +2939,7 @@
         <v>Chamalow</v>
       </c>
       <c r="I2" t="str">
-        <v>OK.</v>
+        <v>OK. SUpzer</v>
       </c>
     </row>
     <row r="3">
@@ -2995,15 +3001,16 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3068,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>apte</v>
+        <v>inapte</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>2023-12-06</v>
       </c>
     </row>
     <row r="4">
@@ -3160,10 +3167,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>apte</v>
+        <v>arevoir</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -3998,8 +4005,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G69"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/data/dataFormation2.xlsx
+++ b/src/data/dataFormation2.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -420,12 +420,9 @@
       <c r="D1" t="str">
         <v>Prenom</v>
       </c>
-      <c r="E1" t="str">
-        <v>Info</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
@@ -437,12 +434,9 @@
       <c r="D2" t="str">
         <v>Cyrille</v>
       </c>
-      <c r="E2" t="str">
-        <v>Test info</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="str">
@@ -456,7 +450,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -470,7 +464,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="str">
@@ -484,7 +478,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="str">
@@ -498,7 +492,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="str">
@@ -512,7 +506,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="str">
@@ -526,7 +520,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="str">
@@ -540,7 +534,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="str">
@@ -551,7 +545,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="str">
@@ -565,7 +559,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="str">
@@ -579,7 +573,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="str">
@@ -593,7 +587,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="str">
@@ -607,7 +601,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="str">
@@ -621,7 +615,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="str">
@@ -635,7 +629,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="str">
@@ -649,7 +643,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="str">
@@ -663,7 +657,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="str">
@@ -677,7 +671,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="str">
@@ -691,7 +685,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="str">
@@ -705,7 +699,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="str">
@@ -719,7 +713,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="str">
@@ -733,7 +727,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="str">
@@ -747,7 +741,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="str">
@@ -761,7 +755,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="str">
@@ -775,7 +769,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="str">
@@ -789,7 +783,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="str">
@@ -803,7 +797,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="str">
@@ -817,7 +811,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="str">
@@ -831,7 +825,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="str">
@@ -845,7 +839,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="str">
@@ -859,7 +853,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="str">
@@ -873,7 +867,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="str">
@@ -887,7 +881,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="str">
@@ -901,7 +895,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="str">
@@ -915,7 +909,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="str">
@@ -929,7 +923,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="str">
@@ -943,7 +937,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="str">
@@ -957,7 +951,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="str">
@@ -971,7 +965,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="str">
@@ -985,7 +979,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="str">
@@ -999,7 +993,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="str">
@@ -1013,7 +1007,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="str">
@@ -1027,7 +1021,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="str">
@@ -1041,7 +1035,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="str">
@@ -1055,7 +1049,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="str">
@@ -1069,7 +1063,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="str">
@@ -1083,7 +1077,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="str">
@@ -1097,7 +1091,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="str">
@@ -1111,7 +1105,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="str">
@@ -1125,7 +1119,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="str">
@@ -1139,7 +1133,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="str">
@@ -1153,7 +1147,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="str">
@@ -1167,7 +1161,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="str">
@@ -1181,7 +1175,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="str">
@@ -1195,7 +1189,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="str">
@@ -1209,7 +1203,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="str">
@@ -1223,7 +1217,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="str">
@@ -1237,7 +1231,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="str">
@@ -1251,7 +1245,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="str">
@@ -1265,7 +1259,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="str">
@@ -1279,7 +1273,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="str">
@@ -1293,7 +1287,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="str">
@@ -1307,7 +1301,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="str">
@@ -1320,33 +1314,16 @@
         <v>Marie</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>65</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Mr</v>
-      </c>
-      <c r="C66" t="str">
-        <v>FUMARD</v>
-      </c>
-      <c r="D66" t="str">
-        <v>Amaury</v>
-      </c>
-      <c r="E66" t="str">
-        <v>IMT Mines ALes</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E66"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D65"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1376,7 +1353,7 @@
         <v>Fabricant</v>
       </c>
       <c r="D2" t="str">
-        <v>1;8;9;7;10;11;13;14;15;16;12;17;18;19;20</v>
+        <v>1;7;8;9;10;11;13;14;15;16;12;17;18;19;20</v>
       </c>
     </row>
     <row r="3">
@@ -1390,11 +1367,12 @@
         <v>Fabricant</v>
       </c>
       <c r="D3" t="str">
-        <v>1;7;8;9;10;11;12;21;22;13;23;24</v>
+        <v>1;7;8;9;10;11;12;21;22;13;23;;24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -1406,6 +1384,7 @@
     </row>
     <row r="5">
       <c r="A5">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5">
@@ -1420,6 +1399,7 @@
     </row>
     <row r="6">
       <c r="A6">
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6">
@@ -1434,6 +1414,7 @@
     </row>
     <row r="7">
       <c r="A7">
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7">
@@ -1448,6 +1429,7 @@
     </row>
     <row r="8">
       <c r="A8">
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8">
@@ -1462,6 +1444,7 @@
     </row>
     <row r="9">
       <c r="A9">
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9">
@@ -1476,38 +1459,41 @@
     </row>
     <row r="10">
       <c r="A10">
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D10" t="str">
-        <v>1;2;3;4;5;6;32;33;17;12;25;22;23</v>
+        <v>3;4;5;6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="str">
-        <v>Fabricant</v>
+        <v>Conducteur</v>
       </c>
       <c r="D11" t="str">
-        <v>1;7;8;9;10;11;12;34;13;35;36</v>
+        <v>1;2;3;4;5;6;32;33;17;12;25;22;23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="str">
         <v>Fabricant</v>
@@ -1518,620 +1504,665 @@
     </row>
     <row r="13">
       <c r="A13">
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D13" t="str">
-        <v>1;2;3;4;5;6;37;38;39</v>
+        <v>1;7;8;9;10;11;12;34;13;35;36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="str">
-        <v>Fabricant</v>
+        <v>Conducteur</v>
       </c>
       <c r="D14" t="str">
-        <v>1;7;8;9;10;11;12;34;35;36</v>
+        <v>1;2;3;4;5;6;37;38;39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D15" t="str">
-        <v>1;2;3;4;5;6;51;40;41;42;43;31;44;45;46;47;48</v>
+        <v>1;7;8;9;10;11;12;34;35;36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D16" t="str">
-        <v>1;2;3;4;5;6;49;50</v>
+        <v>1;2;3;4;5;6;51;40;41;42;43;31;44;45;46;47;48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D17" t="str">
-        <v>1;2;3;4;5;6;37;38;39</v>
+        <v>3;4;5;6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="str">
-        <v>Conditionneur</v>
+        <v>Conducteur</v>
       </c>
       <c r="D18" t="str">
-        <v>3;4;5;6;52;53;44;54;12;17</v>
+        <v>1;2;3;4;5;6;49;50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D19" t="str">
-        <v>1;2;3;4;5;6;55;56;57;58</v>
+        <v>1;2;3;4;5;6;37;38;39;52;53;44;54;12;17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D20" t="str">
-        <v>1;2;3;4;5;6;59;60</v>
+        <v>3;4;5;6;52;53;44;54;12;17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D21" t="str">
-        <v>1;2;3;4;5;6;61;62;63</v>
+        <v>1;2;3;4;5;6;55;56;57;58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D22" t="str">
-        <v>1;2;3;4;5;6;64;63;65</v>
+        <v>1;2;3;4;5;6;59;60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="str">
-        <v>Conditionneur</v>
+        <v>Conducteur</v>
       </c>
       <c r="D23" t="str">
-        <v>3;4;5;6;66;67;12;11;68</v>
+        <v>1;2;3;4;5;6;61;62;63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D24" t="str">
-        <v>1;2;3;4;5;6;54;69;63;16;70</v>
+        <v>1;2;3;4;5;6;64;63;65;66;67;12;11;68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D25" t="str">
-        <v>1;2;3;4;5;6;61;62;63</v>
+        <v>3;4;5;6;66;67;12;11;68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D26" t="str">
-        <v>1;2;3;4;5;6;71;20;12</v>
+        <v>1;2;3;4;5;6;54;69;63;16;70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D27" t="str">
-        <v>1;2;3;4;5;6;45;55;72;120;</v>
+        <v>1;2;3;4;5;6;61;62;63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="str">
-        <v>Conditionneur</v>
+        <v>Conducteur</v>
       </c>
       <c r="D28" t="str">
-        <v>3;4;5;6;73</v>
+        <v>1;2;3;4;5;6;71;20;12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D29" t="str">
-        <v>1;2;3;4;5;6;74;44</v>
+        <v>1;2;3;4;5;6;45;55;72;120;73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="str">
         <v>Conditionneur</v>
       </c>
       <c r="D30" t="str">
-        <v>3;4;5;6;75;76</v>
+        <v>3;4;5;6;73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="str">
-        <v>Fabricant</v>
+        <v>Conducteur</v>
       </c>
       <c r="D31" t="str">
-        <v>1;7;8;9;10;11;12;61;77;78;79;80</v>
+        <v>1;2;3;4;5;6;74;75;76;44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D32" t="str">
-        <v>1;2;3;4;5;6;81;82;12</v>
+        <v>3;4;5;6;75;76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D33" t="str">
-        <v>1;2;3;4;5;6;66;54;12</v>
+        <v>1;7;8;9;10;11;12;61;77;78;79;80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D34" t="str">
-        <v>1;2;3;4;5;6;66;54;12</v>
+        <v>1;2;3;4;5;6;81;82;12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D35" t="str">
-        <v>1;2;3;4;5;6;63;65</v>
+        <v>1;2;3;4;5;6;66;54;12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" t="str">
-        <v>Conditionneur</v>
+        <v>Conducteur</v>
       </c>
       <c r="D36" t="str">
-        <v>3;4;5;6;66;83</v>
+        <v>1;2;3;4;5;6;66;54;12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" t="str">
         <v>Conducteur</v>
       </c>
+      <c r="D37" t="str">
+        <v>1;2;3;4;5;6;63;65;66;83</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
+      </c>
+      <c r="D38" t="str">
+        <v>3;4;5;6;66;83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" t="str">
         <v>Fabricant</v>
       </c>
-      <c r="D39" t="str">
-        <v>1;7;8;9;10;11;12;84</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40">
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" t="str">
         <v>Conducteur</v>
       </c>
-      <c r="D40" t="str">
-        <v>1;2;3;4;5;6;88;54;85;86;87</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="str">
         <v>Fabricant</v>
       </c>
       <c r="D41" t="str">
-        <v>1;7;8;9;10;11;12;13;27;67</v>
+        <v>1;7;8;9;10;11;12;84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D42" t="str">
-        <v>1;2;3;4;5;6;44;75;89;90;12;91;87</v>
+        <v>1;2;3;4;5;6;88;54;85;86;87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="str">
         <v>Fabricant</v>
       </c>
       <c r="D43" t="str">
-        <v>7;8;9;10;11;12;13;89;27;92;12;67;1;25;22;17;23;84</v>
+        <v>1;7;8;9;10;11;12;13;27;67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D44" t="str">
-        <v>1;2;3;4;5;6;128;93;44;67;129</v>
+        <v>1;2;3;4;5;6;44;75;89;90;12;91;87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D45" t="str">
-        <v>1;2;3;4;5;6;81;63;54;94;67</v>
+        <v>7;8;9;10;11;12;13;89;27;92;12;67;1;25;22;17;23;84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D46" t="str">
-        <v>1;2;3;4;5;6;77;63;54;94;67</v>
+        <v>1;2;3;4;5;6;128;93;44;67;129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D47" t="str">
-        <v>1;2;3;4;5;6;13;95;96;97;98;67;70</v>
+        <v>1;2;3;4;5;6;81;63;54;94;67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" t="str">
-        <v>Conditionneur</v>
+        <v>Conducteur</v>
       </c>
       <c r="D48" t="str">
-        <v>3;4;5;6;83;99</v>
+        <v>1;2;3;4;5;6;77;63;54;94;67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D49" t="str">
-        <v>1;2;3;4;5;6;88;54;85;86;87</v>
+        <v>1;2;3;4;5;6;13;95;96;97;98;67;70</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="str">
-        <v>Fabricant</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D50" t="str">
-        <v>1;7;8;9;10;11;12;13;27;67</v>
+        <v>3;4;5;6;83;99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D51" t="str">
-        <v>1;2;3;4;5;6;126;100;101;102</v>
+        <v>1;2;3;4;5;6;88;54;85;86;87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C52" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D52" t="str">
-        <v>1;2;3;4;5;6;44;75;89;90;12;91;87</v>
+        <v>1;7;8;9;10;11;12;13;27;67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C53" t="str">
-        <v>Fabricant</v>
+        <v>Conducteur</v>
       </c>
       <c r="D53" t="str">
-        <v>7;8;9;10;11;12;13;89;27;92;12;67;1;25;22;17;23;84</v>
+        <v>1;2;3;4;5;6;126;100;101;102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="str">
-        <v>Fabricant</v>
+        <v>Conducteur</v>
       </c>
       <c r="D54" t="str">
-        <v>1;7;8;9;10;11;12;13;103;104;105;106;107;67</v>
+        <v>1;2;3;4;5;6;44;75;89;90;12;91;87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D55" t="str">
-        <v>1;2;3;4;5;6;63;108;109;110;111;112;113;114;115</v>
+        <v>7;8;9;10;11;12;13;89;27;92;12;67;1;25;22;17;23;84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
+        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D56" t="str">
-        <v>1;2;3;4;5;6;116;63;54;44;48;12</v>
+        <v>1;7;8;9;10;11;12;13;103;104;105;106;107;67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" t="str">
         <v>Conducteur</v>
@@ -2142,140 +2173,224 @@
     </row>
     <row r="58">
       <c r="A58">
+        <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" t="str">
-        <v>Fabricant</v>
+        <v>Conducteur</v>
       </c>
       <c r="D58" t="str">
-        <v>1;7;8;9;10;11;13;14;15;16;12;17;18;19;20</v>
+        <v>1;2;3;4;5;6;116;63;54;44;48;12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
+        <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C59" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D59" t="str">
-        <v>1;2;3;4;5;6;117;45;124</v>
+        <v>1;2;3;4;5;6;63;108;109;110;111;112;113;114;115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
+        <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C60" t="str">
-        <v>Conducteur</v>
+        <v>Fabricant</v>
       </c>
       <c r="D60" t="str">
-        <v>1;2;3;4;5;6;119;118;54;44;120;17</v>
+        <v>1;7;8;9;10;11;13;14;15;16;12;17;18;19;20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
+        <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" t="str">
-        <v>Conditionneur</v>
+        <v>Conducteur</v>
       </c>
       <c r="D61" t="str">
-        <v>3;4;5;6;12;83</v>
+        <v>1;2;3;4;5;6;117;45;124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
+        <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D62" t="str">
-        <v>1;2;3;4;5;6;121;</v>
+        <v>3;4;5;6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D63" t="str">
-        <v>1;2;3;4;5;6;122;63;54;65;</v>
+        <v>1;2;3;4;5;6;119;118;54;44;120;17;12;83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C64" t="str">
-        <v>Conducteur</v>
+        <v>Conditionneur</v>
       </c>
       <c r="D64" t="str">
-        <v>1;2;3;4;5;6;126;54;124;12;123;16;125;127</v>
+        <v>3;4;5;6;12;83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
+        <f>A64+1</f>
         <v>64</v>
       </c>
       <c r="B65">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C65" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D65" t="str">
-        <v>1;2;3;4;5;6;126;54;124;12;123;16;125;127</v>
+        <v>1;2;3;4;5;6;121;</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <f>A65+1</f>
         <v>65</v>
       </c>
       <c r="B66">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" t="str">
         <v>Conducteur</v>
       </c>
       <c r="D66" t="str">
+        <v>1;2;3;4;5;6;122;63;54;65;</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <f>A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D67" t="str">
+        <v>1;2;3;4;5;6;126;54;124;12;123;16;125;127</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <f>A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>84</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Conditionneur</v>
+      </c>
+      <c r="D68" t="str">
+        <v>3;4;5;6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <f>A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>85</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D69" t="str">
+        <v>1;2;3;4;5;6;126;54;124;12;123;16;125;127</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <f>A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>86</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Conducteur</v>
+      </c>
+      <c r="D70" t="str">
         <v>1;2;3;4;5;6;54;67;122;12;87</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <v>0</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Non-renseigné</v>
+      </c>
+      <c r="D71" t="str">
+        <v>129;130</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D66"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D71"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2296,35 +2411,38 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
+        <v>Intégration/Visite</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Accueil</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Intégration RH/QSE (livret d'accueil), Visite de l'usine</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
         <v>Malaxeur SIKAFILL</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
         <v>SIKAFILL</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3" t="str">
         <v>info lambda</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Melangeur LIQUIDE</v>
-      </c>
-      <c r="C3" t="str">
-        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
-        <v>OFF</v>
+        <v>Melangeur LIQUIDE</v>
       </c>
       <c r="C4" t="str">
         <v>LIQUIDE</v>
@@ -2332,32 +2450,32 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>Disperseur POUDRE</v>
+        <v>OFF</v>
       </c>
       <c r="C5" t="str">
-        <v>POUDRE</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="str">
-        <v>Disperseur teinte Fill</v>
+        <v>Disperseur POUDRE</v>
       </c>
       <c r="C6" t="str">
-        <v>LIQUIDE</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="str">
-        <v>Disperseur LIQUIDE</v>
+        <v>Disperseur teinte Fill</v>
       </c>
       <c r="C7" t="str">
         <v>LIQUIDE</v>
@@ -2365,10 +2483,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="str">
-        <v>Conditionneuse bidon SERAC</v>
+        <v>Disperseur LIQUIDE</v>
       </c>
       <c r="C8" t="str">
         <v>LIQUIDE</v>
@@ -2376,29 +2494,29 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>Conditionneuse Kit EPOXY</v>
+        <v>Conditionneuse bidon SERAC</v>
       </c>
       <c r="C9" t="str">
-        <v>EPOXY</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>MELANGEUR NIEMAN 800 Kg</v>
+        <v>Conditionneuse Kit EPOXY</v>
       </c>
       <c r="C10" t="str">
-        <v>PATE</v>
+        <v>EPOXY</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="str">
         <v>MELANGEUR NIEMAN 800 Kg</v>
@@ -2409,10 +2527,10 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="str">
-        <v>MELANGEUR NIEMAN 300 Kg</v>
+        <v>MELANGEUR NIEMAN 800 Kg</v>
       </c>
       <c r="C12" t="str">
         <v>PATE</v>
@@ -2420,7 +2538,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="str">
         <v>MELANGEUR NIEMAN 300 Kg</v>
@@ -2431,98 +2549,98 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="str">
-        <v>Conditionneuse aérosol</v>
+        <v>MELANGEUR NIEMAN 300 Kg</v>
       </c>
       <c r="C14" t="str">
-        <v>CARTOUCHE</v>
+        <v>PATE</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="str">
-        <v>Fabrication Cup Alu</v>
+        <v>Conditionneuse aérosol</v>
       </c>
       <c r="C15" t="str">
-        <v>DIVERS</v>
+        <v>CARTOUCHE</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="str">
-        <v>Conditionneuse cartouche</v>
+        <v>Fabrication Cup Alu</v>
       </c>
       <c r="C16" t="str">
-        <v>CARTOUCHE</v>
+        <v>DIVERS</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="str">
-        <v>Découpe COMBIFLEX</v>
+        <v>Conditionneuse cartouche</v>
       </c>
       <c r="C17" t="str">
-        <v>COMBIFLEX</v>
+        <v>CARTOUCHE</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="str">
-        <v>Découpe trame</v>
+        <v>Découpe COMBIFLEX</v>
       </c>
       <c r="C18" t="str">
-        <v>TRAME</v>
+        <v>COMBIFLEX</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="str">
-        <v>Ensacheuse film plastique fibre 6mm</v>
+        <v>Découpe trame</v>
       </c>
       <c r="C19" t="str">
-        <v>FIBRE</v>
+        <v>TRAME</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="str">
-        <v>Ensacheuse pulpable colorant</v>
+        <v>Ensacheuse film plastique fibre 6mm</v>
       </c>
       <c r="C20" t="str">
-        <v>COLORANT</v>
+        <v>FIBRE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="str">
-        <v>ENSACHEUSE FIBRE PUCK</v>
+        <v>Ensacheuse pulpable colorant</v>
       </c>
       <c r="C21" t="str">
-        <v>FIBRE</v>
+        <v>COLORANT</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="str">
-        <v>Ensacheuse 600g</v>
+        <v>ENSACHEUSE FIBRE PUCK</v>
       </c>
       <c r="C22" t="str">
         <v>FIBRE</v>
@@ -2530,10 +2648,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="str">
-        <v>conditionneuse manuelle LIQUIDE</v>
+        <v>Ensacheuse 600g</v>
       </c>
       <c r="C23" t="str">
         <v>FIBRE</v>
@@ -2541,32 +2659,32 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="str">
-        <v>Etiquetage pot colorant</v>
+        <v>conditionneuse manuelle LIQUIDE</v>
       </c>
       <c r="C24" t="str">
-        <v>COLORANT</v>
+        <v>FIBRE</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="str">
-        <v>Doypack POUDRE</v>
+        <v>Etiquetage pot colorant</v>
       </c>
       <c r="C25" t="str">
-        <v>POUDRE</v>
+        <v>COLORANT</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="str">
-        <v>Mélangeur Spoutnik</v>
+        <v>Doypack POUDRE</v>
       </c>
       <c r="C26" t="str">
         <v>POUDRE</v>
@@ -2574,21 +2692,21 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="str">
-        <v>Conditionneuse à granulé</v>
+        <v>Mélangeur Spoutnik</v>
       </c>
       <c r="C27" t="str">
-        <v>COLORANT</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="str">
-        <v>Conditionnement pots multi-couleur</v>
+        <v>Conditionneuse à granulé</v>
       </c>
       <c r="C28" t="str">
         <v>COLORANT</v>
@@ -2596,10 +2714,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="str">
-        <v>Conditionnement pots rouge</v>
+        <v>Conditionnement pots multi-couleur</v>
       </c>
       <c r="C29" t="str">
         <v>COLORANT</v>
@@ -2607,26 +2725,29 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="str">
-        <v xml:space="preserve">Ensacheuse petit conditionnement  </v>
+        <v>Conditionnement pots rouge</v>
       </c>
       <c r="C30" t="str">
-        <v>POUDRE</v>
+        <v>COLORANT</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="str">
-        <v>off</v>
+        <v xml:space="preserve">Ensacheuse petit conditionnement  </v>
+      </c>
+      <c r="C31" t="str">
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
         <v>off</v>
@@ -2634,21 +2755,18 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>Disperseur colorant</v>
-      </c>
-      <c r="C33" t="str">
-        <v>POUDRE</v>
+        <v>off</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>Malaxeur Legrand et EMB POUDRE</v>
+        <v>Disperseur colorant</v>
       </c>
       <c r="C34" t="str">
         <v>POUDRE</v>
@@ -2656,10 +2774,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="str">
-        <v>Malaxeur Katymper</v>
+        <v>Malaxeur Legrand et EMB POUDRE</v>
       </c>
       <c r="C35" t="str">
         <v>POUDRE</v>
@@ -2667,10 +2785,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="str">
-        <v>Palettiseur DAMVILLE</v>
+        <v>Malaxeur Katymper</v>
       </c>
       <c r="C36" t="str">
         <v>POUDRE</v>
@@ -2678,10 +2796,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
-        <v>Conditionneuse Kit Mortier &lt;5KG</v>
+        <v>Palettiseur DAMVILLE</v>
       </c>
       <c r="C37" t="str">
         <v>POUDRE</v>
@@ -2689,10 +2807,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
-        <v>Conditionneuse Kit Mortier &gt;5KG</v>
+        <v>Conditionneuse Kit Mortier &lt;5KG</v>
       </c>
       <c r="C38" t="str">
         <v>POUDRE</v>
@@ -2700,10 +2818,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>TAMISEUSE BIG BAG</v>
+        <v>Conditionneuse Kit Mortier &gt;5KG</v>
       </c>
       <c r="C39" t="str">
         <v>POUDRE</v>
@@ -2711,10 +2829,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>SUR-EMBALLAGE</v>
+        <v>TAMISEUSE BIG BAG</v>
       </c>
       <c r="C40" t="str">
         <v>POUDRE</v>
@@ -2722,10 +2840,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="str">
-        <v>Malaxeur Legrand et EMB POUDRE</v>
+        <v>SUR-EMBALLAGE</v>
       </c>
       <c r="C41" t="str">
         <v>POUDRE</v>
@@ -2733,32 +2851,32 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" t="str">
-        <v xml:space="preserve">Conditionneuse BAG IN BOX </v>
+        <v>Malaxeur Legrand et EMB POUDRE</v>
       </c>
       <c r="C42" t="str">
-        <v>BIB</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" t="str">
-        <v>Malaxeur Katymper</v>
+        <v xml:space="preserve">Conditionneuse BAG IN BOX </v>
       </c>
       <c r="C43" t="str">
-        <v>POUDRE</v>
+        <v>BIB</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="str">
-        <v>MALAXEUR TURMIX QATAR</v>
+        <v>Malaxeur Katymper</v>
       </c>
       <c r="C44" t="str">
         <v>POUDRE</v>
@@ -2766,109 +2884,109 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" t="str">
-        <v>Puckeuse fibre 2</v>
+        <v>MALAXEUR TURMIX QATAR</v>
       </c>
       <c r="C45" t="str">
-        <v>FIBRE</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="str">
-        <v>Conditionneuse sachets 100g</v>
+        <v>Puckeuse fibre 2</v>
       </c>
       <c r="C46" t="str">
-        <v>100 G POUDRE</v>
+        <v>FIBRE</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="str">
-        <v>Puckeuse fibre 1</v>
+        <v>Conditionneuse sachets 100g</v>
       </c>
       <c r="C47" t="str">
-        <v>FIBRE</v>
+        <v>100 G POUDRE</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" t="str">
-        <v>Malaxeur SIKAFILL</v>
+        <v>Puckeuse fibre 1</v>
       </c>
       <c r="C48" t="str">
-        <v>SIKAFILL</v>
+        <v>FIBRE</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B49" t="str">
-        <v>Etiqueteuse seaux</v>
+        <v>Malaxeur SIKAFILL</v>
       </c>
       <c r="C49" t="str">
-        <v>POUDRE</v>
+        <v>SIKAFILL</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" t="str">
-        <v>Conditionneuse LIQUIDE Double tete</v>
+        <v>Etiqueteuse seaux</v>
       </c>
       <c r="C50" t="str">
-        <v>LIQUIDE</v>
+        <v>POUDRE</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" t="str">
-        <v>Découpe trame</v>
+        <v>Conditionneuse LIQUIDE Double tete</v>
       </c>
       <c r="C51" t="str">
-        <v>TRAME</v>
+        <v>LIQUIDE</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" t="str">
-        <v xml:space="preserve">CONDITIONNEUSE FIBRE VEGETALE </v>
+        <v>Découpe trame</v>
       </c>
       <c r="C52" t="str">
-        <v>FIBRE</v>
+        <v>TRAME</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" t="str">
-        <v>Conditionneuse fill 1L/4L</v>
+        <v xml:space="preserve">CONDITIONNEUSE FIBRE VEGETALE </v>
       </c>
       <c r="C53" t="str">
-        <v>SIKAFILL</v>
+        <v>FIBRE</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" t="str">
-        <v>Conditionneuse fill 20L</v>
+        <v>Conditionneuse fill 1L/4L</v>
       </c>
       <c r="C54" t="str">
         <v>SIKAFILL</v>
@@ -2876,56 +2994,53 @@
     </row>
     <row r="55">
       <c r="A55">
+        <v>85</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Conditionneuse fill 20L</v>
+      </c>
+      <c r="C55" t="str">
+        <v>SIKAFILL</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
         <v>86</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B56" t="str">
         <v xml:space="preserve">Conditionneuse Seaux Mortier </v>
       </c>
-      <c r="C55" t="str">
+      <c r="C56" t="str">
         <v>POUDRE</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D56"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ID_PersonneFormation</v>
+        <v>ID_Personne</v>
       </c>
       <c r="B1" t="str">
-        <v>ID_Personne</v>
+        <v>Genre</v>
       </c>
       <c r="C1" t="str">
-        <v>ID_Formation</v>
+        <v>Nom</v>
       </c>
       <c r="D1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Niveau</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Formateur</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Evaluateur</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Produit</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Commentaire</v>
+        <v>Prenom</v>
       </c>
     </row>
     <row r="2">
@@ -2933,28 +3048,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>Mr</v>
+      </c>
+      <c r="C2" t="str">
+        <v>CORNU</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-10-10</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Thomas</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Valentine</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Chamalow</v>
-      </c>
-      <c r="I2" t="str">
-        <v>OK. SUpzer</v>
+        <v>Cyrille</v>
       </c>
     </row>
     <row r="3">
@@ -2962,28 +3062,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>Mr</v>
+      </c>
+      <c r="C3" t="str">
+        <v>NAVARRO</v>
       </c>
       <c r="D3" t="str">
-        <v>2023-04-06</v>
-      </c>
-      <c r="E3" t="str">
-        <v>3</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Paul</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Valentine</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Huile d'olive</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Mince</v>
+        <v>Gregory</v>
       </c>
     </row>
     <row r="4">
@@ -2991,127 +3076,876 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>Mr</v>
+      </c>
+      <c r="C4" t="str">
+        <v>LAUZE</v>
       </c>
       <c r="D4" t="str">
-        <v>2023-01-27</v>
-      </c>
-      <c r="E4" t="str">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <v>JP</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Benjamin</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Shampoing</v>
-      </c>
-      <c r="I4" t="str">
-        <v>undefined</v>
+        <v>Steven</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
+        <v xml:space="preserve">Mr </v>
+      </c>
+      <c r="C5" t="str">
+        <v>LEBOUC</v>
       </c>
       <c r="D5" t="str">
-        <v>2023-12-08</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Nom, Prénom</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Nom, Prénom</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Produit en cours de production</v>
-      </c>
-      <c r="I5" t="str">
-        <v/>
+        <v xml:space="preserve">François </v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>Mr</v>
+      </c>
+      <c r="C6" t="str">
+        <v>BOILLOT</v>
       </c>
       <c r="D6" t="str">
-        <v>2023-12-08</v>
-      </c>
-      <c r="E6" t="str">
-        <v>3</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Nom, Prénom</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Nom, Prénom</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Produit en cours de production</v>
-      </c>
-      <c r="I6" t="str">
-        <v/>
+        <v>Luc</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C7" t="str">
+        <v>AAOUTIN</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Jonhatan</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B8" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C8" t="str">
+        <v>TERRILLON</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Isabelle</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C9" t="str">
+        <v>PACSKO</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Yan</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Nahema</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v xml:space="preserve">Mme </v>
+      </c>
+      <c r="C11" t="str">
+        <v>GIANGONTIERI</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Sophia</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C12" t="str">
+        <v>LAFORET</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Can</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C13" t="str">
+        <v>GUILLOT</v>
+      </c>
+      <c r="D13" t="str">
+        <v xml:space="preserve">Hervé </v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C14" t="str">
+        <v>BERNADAC</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Sylvain</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2023-12-08</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Nom, Prénom</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Nom, Prénom</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Produit en cours de production</v>
-      </c>
-      <c r="I7" t="str">
-        <v/>
+      <c r="B15" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C15" t="str">
+        <v>PUECHLONG</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">Angie </v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C16" t="str">
+        <v>BELLARD</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Nicolas</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C17" t="str">
+        <v>VAN DE MERSSCHE</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Nico</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C18" t="str">
+        <v>MAXIMIN</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Johann</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C19" t="str">
+        <v>LUCAS</v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve">Frédéric </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C20" t="str">
+        <v>MONCHAL</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Flavien</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C21" t="str">
+        <v>BLONDY</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Dorian</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C22" t="str">
+        <v>NAVARRO</v>
+      </c>
+      <c r="D22" t="str">
+        <v xml:space="preserve">Océane </v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C23" t="str">
+        <v>BURGALS</v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve">Antoine </v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ABADIAS</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Esteban</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C25" t="str">
+        <v>MOREAU</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Dylan</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C26" t="str">
+        <v>MOIREAU</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Quentin</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CHRISTMANN</v>
+      </c>
+      <c r="D27" t="str">
+        <v xml:space="preserve">Valerie </v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C28" t="str">
+        <v>RAOULT</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Jeanne</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C29" t="str">
+        <v>LAROCHE</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Noelie</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C30" t="str">
+        <v>SANTAPAU</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Floriane</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CLOUX</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Jean</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C32" t="str">
+        <v>ARNAUD</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Christopher</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C33" t="str">
+        <v>PEN</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Isaya</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C34" t="str">
+        <v>MOUILLARD</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Sandra</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C35" t="str">
+        <v>PORTMANN</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Laurent</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C36" t="str">
+        <v>CAIA</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Jules</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C37" t="str">
+        <v>DUCIEUX</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Marie Caroline</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C38" t="str">
+        <v>HAMADACHE</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Samir</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ALICIA</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Martin</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C40" t="str">
+        <v>DEBORD</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Dylan</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C41" t="str">
+        <v>BERTHOLDOT</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Jade</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C42" t="str">
+        <v>PASTOR</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Dylan</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C43" t="str">
+        <v>LIEGE</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Loic</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C44" t="str">
+        <v>LAVAURE</v>
+      </c>
+      <c r="D44" t="str">
+        <v xml:space="preserve">Corentin </v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C45" t="str">
+        <v>TROTTET</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Alexandre</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C46" t="str">
+        <v>RICHARD</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Lucie</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C47" t="str">
+        <v>SABINE</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Julien</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C48" t="str">
+        <v>GARNIER</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Calvin</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C49" t="str">
+        <v>MAUGER</v>
+      </c>
+      <c r="D49" t="str">
+        <v xml:space="preserve">Aurelie </v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C50" t="str">
+        <v>WALBIN</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Stella</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C51" t="str">
+        <v>LEPRETRE</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Solwene</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C52" t="str">
+        <v>FABRIS</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Gilles</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C53" t="str">
+        <v>FRAPPEZ</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Maxime</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C54" t="str">
+        <v>VERDIER</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Laurent</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C55" t="str">
+        <v>SOUSTELLE</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Ruddy</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C56" t="str">
+        <v>NOTEL</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Sandee</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C57" t="str">
+        <v>HADDADI</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Myriam</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C58" t="str">
+        <v>DOARE</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Bruno</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C59" t="str">
+        <v>DELAMARE</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Geoffrey</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C60" t="str">
+        <v>DUMAS</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Jonhatan</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C61" t="str">
+        <v>LIOUE</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Adrien</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C62" t="str">
+        <v>CORTENET</v>
+      </c>
+      <c r="D62" t="str">
+        <v xml:space="preserve">Amélie </v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C63" t="str">
+        <v>PINCHOT</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Yoann</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="C64" t="str">
+        <v>DE PAYEN</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Bruno</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Mme</v>
+      </c>
+      <c r="C65" t="str">
+        <v>URLY</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Marie</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D65"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4105,397 +4939,6 @@
         <v/>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <v>65</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="str">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="str">
-        <v>apte</v>
-      </c>
-      <c r="G44" t="str">
-        <v>2023-12-08</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <v>65</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" t="str">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="str">
-        <v>arevoir</v>
-      </c>
-      <c r="G45" t="str">
-        <v>2023-12-08</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <v>65</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46" t="str">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="str">
-        <v>apte</v>
-      </c>
-      <c r="G46" t="str">
-        <v>2023-12-08</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <v>65</v>
-      </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-      <c r="D47" t="str">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <v>65</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48" t="str">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>48</v>
-      </c>
-      <c r="B49" t="str">
-        <v>65</v>
-      </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-      <c r="D49" t="str">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <v>65</v>
-      </c>
-      <c r="C50">
-        <v>13</v>
-      </c>
-      <c r="D50" t="str">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <v>65</v>
-      </c>
-      <c r="C51">
-        <v>14</v>
-      </c>
-      <c r="D51" t="str">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G51" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>51</v>
-      </c>
-      <c r="B52" t="str">
-        <v>65</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-      <c r="D52" t="str">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G52" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>52</v>
-      </c>
-      <c r="B53" t="str">
-        <v>65</v>
-      </c>
-      <c r="C53">
-        <v>16</v>
-      </c>
-      <c r="D53" t="str">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>53</v>
-      </c>
-      <c r="B54" t="str">
-        <v>65</v>
-      </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54" t="str">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>54</v>
-      </c>
-      <c r="B55" t="str">
-        <v>65</v>
-      </c>
-      <c r="C55">
-        <v>17</v>
-      </c>
-      <c r="D55" t="str">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G55" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>55</v>
-      </c>
-      <c r="B56" t="str">
-        <v>65</v>
-      </c>
-      <c r="C56">
-        <v>18</v>
-      </c>
-      <c r="D56" t="str">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G56" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>56</v>
-      </c>
-      <c r="B57" t="str">
-        <v>65</v>
-      </c>
-      <c r="C57">
-        <v>19</v>
-      </c>
-      <c r="D57" t="str">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G57" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>57</v>
-      </c>
-      <c r="B58" t="str">
-        <v>65</v>
-      </c>
-      <c r="C58">
-        <v>20</v>
-      </c>
-      <c r="D58" t="str">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G58" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>58</v>
-      </c>
-      <c r="B59" t="str">
-        <v>65</v>
-      </c>
-      <c r="C59" t="str">
-        <v>128</v>
-      </c>
-      <c r="D59" t="str">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G59" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>59</v>
-      </c>
-      <c r="B60" t="str">
-        <v>1</v>
-      </c>
-      <c r="C60" t="str">
-        <v>128</v>
-      </c>
-      <c r="D60" t="str">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="str">
-        <v>non-ev</v>
-      </c>
-      <c r="G60" t="str">
-        <v/>
-      </c>
-    </row>
     <row r="61">
       <c r="A61" t="str">
         <v>60</v>
@@ -5390,36 +5833,17 @@
         <v>non-ev</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>99</v>
-      </c>
-      <c r="B102" t="str">
-        <v>65</v>
-      </c>
-      <c r="C102" t="str">
-        <v>128</v>
-      </c>
-      <c r="D102" t="str">
-        <v>1</v>
-      </c>
-      <c r="E102" t="str">
-        <v>0</v>
-      </c>
-      <c r="F102" t="str">
-        <v>non-ev</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G102"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G113"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6843,10 +7267,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Respect des consignes sécurité &amp; RH</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Connaissance des locaux</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C131"/>
   </ignoredErrors>
 </worksheet>
 </file>